--- a/Output/roaming_impact_reports_per_acct/JohnsManville_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/JohnsManville_driver_summary.xlsx
@@ -480,14 +480,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Realtek RTL8852AE WiFi 6 802.11ax PCIe Adapter - 6001.10.356.0</t>
+          <t>Qualcomm Atheros AR9580 Wireless Network Adapter - 10.1.10.5</t>
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>324</v>
+        <v>845</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>95</v>
@@ -500,29 +500,29 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2427</v>
+        <v>1083</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>96.3</v>
+        <v>95.09999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Qualcomm Atheros AR9580 Wireless Network Adapter - 10.1.10.5</t>
+          <t>Realtek RTL8852AE WiFi 6 802.11ax PCIe Adapter - 6001.10.356.0</t>
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1071</v>
+        <v>14</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>96.40000000000001</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="6">
@@ -532,10 +532,10 @@
         </is>
       </c>
       <c r="B6" s="5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3822</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="7"/>

--- a/Output/roaming_impact_reports_per_acct/JohnsManville_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/JohnsManville_driver_summary.xlsx
@@ -52,7 +52,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -63,6 +63,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -428,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +439,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="64" customWidth="1" min="1" max="1"/>
+    <col width="101" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="30" customWidth="1" min="4" max="4"/>
@@ -480,49 +483,49 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Qualcomm Atheros AR9580 Wireless Network Adapter - 10.1.10.5</t>
+          <t>Qualcomm FastConnect 6900 Wi-Fi 6E Dual Band Simultaneous (DBS) WiFiCx Network Adapter - 2.0.0.1229</t>
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>845</v>
+        <v>1</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>95</v>
+        <v>88.90000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Qualcomm Atheros AR9580 Wireless Network Adapter - 3.0.2.201</t>
+          <t>Qualcomm Atheros AR9580 Wireless Network Adapter - 10.1.10.5</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
         <v>3</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1083</v>
+        <v>878</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>95.09999999999999</v>
+        <v>94.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Realtek RTL8852AE WiFi 6 802.11ax PCIe Adapter - 6001.10.356.0</t>
+          <t>Qualcomm Atheros AR9580 Wireless Network Adapter - 3.0.2.201</t>
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>14</v>
+        <v>1058</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>98.7</v>
+        <v>95.3</v>
       </c>
     </row>
     <row r="6">
@@ -532,10 +535,10 @@
         </is>
       </c>
       <c r="B6" s="5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1942</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="7"/>
@@ -573,11 +576,49 @@
         </is>
       </c>
     </row>
-    <row r="14"/>
-    <row r="15"/>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Qualcomm FastConnect 6900 Wi-Fi 6E Dual Band Simultaneous (DBS) WiFiCx Network Adapter - 2.0.0.1277</t>
+        </is>
+      </c>
+      <c r="B14" s="6" t="n">
+        <v>28693</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E14" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Qualcomm FastConnect 6900 Wi-Fi 6E Dual Band Simultaneous (DBS) WiFiCx Network Adapter - 2.0.0.1229</t>
+        </is>
+      </c>
+      <c r="B15" s="6" t="n">
+        <v>196400</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E15" s="4" t="inlineStr">
+        <is>
+          <t>2024-08-26</t>
+        </is>
+      </c>
+    </row>
     <row r="16"/>
     <row r="17"/>
     <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/JohnsManville_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/JohnsManville_driver_summary.xlsx
@@ -506,10 +506,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>878</v>
+        <v>902</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>94.8</v>
+        <v>94.59999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -522,7 +522,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1058</v>
+        <v>1063</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>95.3</v>
@@ -538,7 +538,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1937</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="7"/>

--- a/Output/roaming_impact_reports_per_acct/JohnsManville_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/JohnsManville_driver_summary.xlsx
@@ -522,10 +522,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1063</v>
+        <v>1082</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>95.3</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="6">
@@ -538,7 +538,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1966</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="7"/>

--- a/Output/roaming_impact_reports_per_acct/JohnsManville_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/JohnsManville_driver_summary.xlsx
@@ -52,7 +52,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -63,9 +63,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -431,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,7 +436,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="101" customWidth="1" min="1" max="1"/>
+    <col width="62" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="30" customWidth="1" min="4" max="4"/>
@@ -483,142 +480,88 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Qualcomm FastConnect 6900 Wi-Fi 6E Dual Band Simultaneous (DBS) WiFiCx Network Adapter - 2.0.0.1229</t>
+          <t>Qualcomm Atheros AR9580 Wireless Network Adapter - 10.1.10.5</t>
         </is>
       </c>
       <c r="B3" s="4" t="n">
         <v>2</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1</v>
+        <v>830</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>88.90000000000001</v>
+        <v>94.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Qualcomm Atheros AR9580 Wireless Network Adapter - 10.1.10.5</t>
+          <t>Qualcomm Atheros AR9580 Wireless Network Adapter - 3.0.2.201</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
         <v>3</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>902</v>
+        <v>777</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>94.59999999999999</v>
+        <v>96.5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Qualcomm Atheros AR9580 Wireless Network Adapter - 3.0.2.201</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>1082</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>95.2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Totals:</t>
         </is>
       </c>
-      <c r="B6" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5" t="n">
-        <v>1985</v>
-      </c>
-    </row>
+      <c r="B5" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="6"/>
     <row r="7"/>
     <row r="8"/>
     <row r="9"/>
     <row r="10"/>
-    <row r="11"/>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Good Drivers (Roaming &gt; 99.8%)</t>
+        </is>
+      </c>
+    </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Good Drivers (Roaming &gt; 99.8%)</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>Adapter-Driver</t>
         </is>
       </c>
-      <c r="B13" s="3" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>Total Samples</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr"/>
-      <c r="D13" s="3" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr"/>
+      <c r="D12" s="3" t="inlineStr">
         <is>
           <t>Good Roaming Calculation (%)</t>
         </is>
       </c>
-      <c r="E13" s="3" t="inlineStr">
+      <c r="E12" s="3" t="inlineStr">
         <is>
           <t>Driver Vintage</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Qualcomm FastConnect 6900 Wi-Fi 6E Dual Band Simultaneous (DBS) WiFiCx Network Adapter - 2.0.0.1277</t>
-        </is>
-      </c>
-      <c r="B14" s="6" t="n">
-        <v>28693</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E14" s="4" t="inlineStr">
-        <is>
-          <t>2024-11-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Qualcomm FastConnect 6900 Wi-Fi 6E Dual Band Simultaneous (DBS) WiFiCx Network Adapter - 2.0.0.1229</t>
-        </is>
-      </c>
-      <c r="B15" s="6" t="n">
-        <v>196400</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E15" s="4" t="inlineStr">
-        <is>
-          <t>2024-08-26</t>
-        </is>
-      </c>
-    </row>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
     <row r="16"/>
     <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/JohnsManville_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/JohnsManville_driver_summary.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,10 +437,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="62" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="30" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
+    <col width="2" customWidth="1" min="5" max="5"/>
     <col width="2" customWidth="1" min="6" max="6"/>
     <col width="2" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
@@ -487,10 +487,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>830</v>
+        <v>754</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>94.8</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4">
@@ -503,10 +503,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>777</v>
+        <v>866</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>96.5</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5">
@@ -519,7 +519,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1607</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="6"/>
@@ -535,33 +535,12 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>Adapter-Driver</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Total Samples</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr"/>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>Good Roaming Calculation (%)</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="inlineStr">
-        <is>
-          <t>Driver Vintage</t>
-        </is>
-      </c>
-    </row>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>No good drivers found.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/JohnsManville_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/JohnsManville_driver_summary.xlsx
@@ -480,33 +480,33 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Qualcomm Atheros AR9580 Wireless Network Adapter - 10.1.10.5</t>
+          <t>Qualcomm Atheros AR9580 Wireless Network Adapter - 3.0.2.201</t>
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>754</v>
+        <v>799</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>95</v>
+        <v>92.40000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Qualcomm Atheros AR9580 Wireless Network Adapter - 3.0.2.201</t>
+          <t>Qualcomm Atheros AR9580 Wireless Network Adapter - 10.1.10.5</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>866</v>
+        <v>273</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>96</v>
+        <v>97.2</v>
       </c>
     </row>
     <row r="5">
@@ -519,7 +519,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1620</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="6"/>
